--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF30D380-2A19-49DC-A14C-BC0D4A90A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA72903-B7A6-48B5-AF63-147BCC66F4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15510" yWindow="180" windowWidth="12390" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
@@ -1414,7 +1414,7 @@
   </sheetPr>
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA72903-B7A6-48B5-AF63-147BCC66F4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD5C7F-E846-4308-A409-1E287F8CD026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="180" windowWidth="12390" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$B$214</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="411">
   <si>
     <t>arabic_word</t>
   </si>
@@ -37,9 +40,6 @@
     <t>اُشْكُرْ</t>
   </si>
   <si>
-    <t>Şükret</t>
-  </si>
-  <si>
     <t>يَشْكُرُ</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>حَكَمَ</t>
   </si>
   <si>
-    <t>Hükmetti</t>
-  </si>
-  <si>
     <t>نَقَلَ</t>
   </si>
   <si>
@@ -91,15 +88,9 @@
     <t>يَعْرِفُ</t>
   </si>
   <si>
-    <t>Biliyor</t>
-  </si>
-  <si>
     <t>اِعْرِفْ</t>
   </si>
   <si>
-    <t>Bil</t>
-  </si>
-  <si>
     <t>ضَرَبَ</t>
   </si>
   <si>
@@ -145,15 +136,9 @@
     <t>يَنْصَحُ</t>
   </si>
   <si>
-    <t>Nasihat ediyor</t>
-  </si>
-  <si>
     <t>اِنْصَحْ</t>
   </si>
   <si>
-    <t>Nasihat et</t>
-  </si>
-  <si>
     <t>جَعَلَ</t>
   </si>
   <si>
@@ -199,15 +184,9 @@
     <t>يَسْمَعُ</t>
   </si>
   <si>
-    <t>İşitiyor</t>
-  </si>
-  <si>
     <t>اِسْمَعَ</t>
   </si>
   <si>
-    <t>İşit</t>
-  </si>
-  <si>
     <t>فَهِمَ</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>اُبْعُدْ</t>
   </si>
   <si>
-    <t>Uzak ol! // Kaybol</t>
-  </si>
-  <si>
     <t>شَجُعَ</t>
   </si>
   <si>
@@ -283,15 +259,9 @@
     <t>يَحْسِبُ</t>
   </si>
   <si>
-    <t>Zannediyor</t>
-  </si>
-  <si>
     <t>اِحْسِبْ</t>
   </si>
   <si>
-    <t>Zannet !!!   San!!!</t>
-  </si>
-  <si>
     <t>أَمَرَ</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>مُرْ</t>
   </si>
   <si>
-    <t>Emret</t>
-  </si>
-  <si>
     <t>أَكَلَ</t>
   </si>
   <si>
@@ -337,9 +304,6 @@
     <t>اِيسِرْ</t>
   </si>
   <si>
-    <t>Esir al</t>
-  </si>
-  <si>
     <t>أَفَكَ</t>
   </si>
   <si>
@@ -373,9 +337,6 @@
     <t>اِسأَلْ</t>
   </si>
   <si>
-    <t>Sor !  //  İste</t>
-  </si>
-  <si>
     <t>زَأَرَ</t>
   </si>
   <si>
@@ -403,9 +364,6 @@
     <t>اِمْلَأْ</t>
   </si>
   <si>
-    <t>Doldur</t>
-  </si>
-  <si>
     <t>قَرَأَ</t>
   </si>
   <si>
@@ -457,9 +415,6 @@
     <t>اِيلَفْ</t>
   </si>
   <si>
-    <t>Alış! // Isın !</t>
-  </si>
-  <si>
     <t>أَزِنَ</t>
   </si>
   <si>
@@ -580,9 +535,6 @@
     <t>فِرَّ</t>
   </si>
   <si>
-    <t>Kaç</t>
-  </si>
-  <si>
     <t>ضَلَّ</t>
   </si>
   <si>
@@ -613,9 +565,6 @@
     <t>Dokunuyor // Temas ediyor</t>
   </si>
   <si>
-    <t>Dokun! // Temas et!</t>
-  </si>
-  <si>
     <t>عَضَّ</t>
   </si>
   <si>
@@ -655,9 +604,6 @@
     <t>جِدْ</t>
   </si>
   <si>
-    <t>Bul</t>
-  </si>
-  <si>
     <t>وَصَفَ</t>
   </si>
   <si>
@@ -706,9 +652,6 @@
     <t>هَبْ</t>
   </si>
   <si>
-    <t>Ver! // Bağışla!</t>
-  </si>
-  <si>
     <t>وَضَعَ</t>
   </si>
   <si>
@@ -745,9 +688,6 @@
     <t>اِبجَلْ</t>
   </si>
   <si>
-    <t>Kork</t>
-  </si>
-  <si>
     <t>وَهِمَ</t>
   </si>
   <si>
@@ -935,6 +875,387 @@
   </si>
   <si>
     <t>Üstün oldu</t>
+  </si>
+  <si>
+    <t>Artırdı</t>
+  </si>
+  <si>
+    <t>Artırıyor,çoğaltıyor</t>
+  </si>
+  <si>
+    <t>Artır ! // Çoğalt !</t>
+  </si>
+  <si>
+    <t>Arttırmak</t>
+  </si>
+  <si>
+    <t>Avladı</t>
+  </si>
+  <si>
+    <t>Geldi</t>
+  </si>
+  <si>
+    <t>Sattı</t>
+  </si>
+  <si>
+    <t>Ayıpladı</t>
+  </si>
+  <si>
+    <t>Ölçüp verdi</t>
+  </si>
+  <si>
+    <t>Kıyas etti</t>
+  </si>
+  <si>
+    <t>Kork !</t>
+  </si>
+  <si>
+    <t>Korkmak</t>
+  </si>
+  <si>
+    <t>Diledi</t>
+  </si>
+  <si>
+    <t>Uyudu</t>
+  </si>
+  <si>
+    <t>Kazandı</t>
+  </si>
+  <si>
+    <t>Kıskandı</t>
+  </si>
+  <si>
+    <t>زَادَ</t>
+  </si>
+  <si>
+    <t>يَزِيدُ</t>
+  </si>
+  <si>
+    <t>زِدْ</t>
+  </si>
+  <si>
+    <t>زِيَادَتٌ</t>
+  </si>
+  <si>
+    <t>صَادَ</t>
+  </si>
+  <si>
+    <t>جَاءَ</t>
+  </si>
+  <si>
+    <t>بَاعَ</t>
+  </si>
+  <si>
+    <t>عَابَ</t>
+  </si>
+  <si>
+    <t>كَالَ</t>
+  </si>
+  <si>
+    <t>قَاسَ</t>
+  </si>
+  <si>
+    <t>خَافَ</t>
+  </si>
+  <si>
+    <t>يَخَافُ</t>
+  </si>
+  <si>
+    <t>خَفْ</t>
+  </si>
+  <si>
+    <t>خَوْفٌ</t>
+  </si>
+  <si>
+    <t>شَاءَ</t>
+  </si>
+  <si>
+    <t>خَالَ</t>
+  </si>
+  <si>
+    <t>نَامَ</t>
+  </si>
+  <si>
+    <t>هَابَ</t>
+  </si>
+  <si>
+    <t>نَالَ</t>
+  </si>
+  <si>
+    <t>غَارَ</t>
+  </si>
+  <si>
+    <t>Biliyor / Tanıyor</t>
+  </si>
+  <si>
+    <t>Bil ! // Tanı !</t>
+  </si>
+  <si>
+    <t>Bilmek</t>
+  </si>
+  <si>
+    <t>مَعْرِفَهٌ</t>
+  </si>
+  <si>
+    <t>Öğütlüyor  // Nasihat ediyor</t>
+  </si>
+  <si>
+    <t>Öğütle ! // Nasihat et !</t>
+  </si>
+  <si>
+    <t>Nasihat etmek</t>
+  </si>
+  <si>
+    <t>نُصْحًا</t>
+  </si>
+  <si>
+    <t>İşitiyor // Dinliyor</t>
+  </si>
+  <si>
+    <t>İşit ! // Dinle !</t>
+  </si>
+  <si>
+    <t>İşitmek</t>
+  </si>
+  <si>
+    <t>سَمَاعٌ</t>
+  </si>
+  <si>
+    <t>Uzak ol ! // Kaybol !</t>
+  </si>
+  <si>
+    <t>Uzak olmak</t>
+  </si>
+  <si>
+    <t>بُعْدٌ</t>
+  </si>
+  <si>
+    <t>Sanıyor // Zannediyor</t>
+  </si>
+  <si>
+    <t>Zannet ! //  San !</t>
+  </si>
+  <si>
+    <t>Zannetmek</t>
+  </si>
+  <si>
+    <t>حِسْبَانٌ</t>
+  </si>
+  <si>
+    <t>Emret !</t>
+  </si>
+  <si>
+    <t>Emretmek</t>
+  </si>
+  <si>
+    <t>أَمْرٌ</t>
+  </si>
+  <si>
+    <t>Esir al !</t>
+  </si>
+  <si>
+    <t>Esir almak</t>
+  </si>
+  <si>
+    <t>أَسْرٌ</t>
+  </si>
+  <si>
+    <t>Sor !  //  İste !</t>
+  </si>
+  <si>
+    <t>Sormak</t>
+  </si>
+  <si>
+    <t>سُؤَالٌ</t>
+  </si>
+  <si>
+    <t>Doldur !</t>
+  </si>
+  <si>
+    <t>Doldurmak</t>
+  </si>
+  <si>
+    <t>مَلْءٌ</t>
+  </si>
+  <si>
+    <t>Alış ! // Isın !</t>
+  </si>
+  <si>
+    <t>إِلْفٌ</t>
+  </si>
+  <si>
+    <t>Alışmak</t>
+  </si>
+  <si>
+    <t>Acımak</t>
+  </si>
+  <si>
+    <t>رَأْفَةٌ</t>
+  </si>
+  <si>
+    <t>سُرُورٌ</t>
+  </si>
+  <si>
+    <t>Sevindirmek</t>
+  </si>
+  <si>
+    <t>Kaç !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaçmak </t>
+  </si>
+  <si>
+    <t>فِرَارٌ</t>
+  </si>
+  <si>
+    <t>Dokun ! // Temas et !</t>
+  </si>
+  <si>
+    <t>مَسٌّ</t>
+  </si>
+  <si>
+    <t>Dokunmak</t>
+  </si>
+  <si>
+    <t>Bulmak</t>
+  </si>
+  <si>
+    <t>وُجُودٌ</t>
+  </si>
+  <si>
+    <t>Vermek</t>
+  </si>
+  <si>
+    <t>وَهْبٌ</t>
+  </si>
+  <si>
+    <t>وَجَلٌ</t>
+  </si>
+  <si>
+    <t>Uyanmak</t>
+  </si>
+  <si>
+    <t>يَقَظٌ</t>
+  </si>
+  <si>
+    <t>دَعَا</t>
+  </si>
+  <si>
+    <t>يَدْعُو</t>
+  </si>
+  <si>
+    <t>اُدْعُ</t>
+  </si>
+  <si>
+    <t>دَعْوَةٌ</t>
+  </si>
+  <si>
+    <t>Çağırdı</t>
+  </si>
+  <si>
+    <t>Çağırıyor,davet ediyor</t>
+  </si>
+  <si>
+    <t>Çağır ! // Davet et !</t>
+  </si>
+  <si>
+    <t>Çağırmak</t>
+  </si>
+  <si>
+    <t>Giydirdi</t>
+  </si>
+  <si>
+    <t>Sildi</t>
+  </si>
+  <si>
+    <t>Şikayet etti</t>
+  </si>
+  <si>
+    <t>Savaştı</t>
+  </si>
+  <si>
+    <t>Rica etti</t>
+  </si>
+  <si>
+    <t>كَسَا</t>
+  </si>
+  <si>
+    <t>مَحَا</t>
+  </si>
+  <si>
+    <t>شَكَا</t>
+  </si>
+  <si>
+    <t>غَزَا</t>
+  </si>
+  <si>
+    <t>تَلَا</t>
+  </si>
+  <si>
+    <t>رَجَا</t>
+  </si>
+  <si>
+    <t>سَقَى</t>
+  </si>
+  <si>
+    <t>يَسْقِي</t>
+  </si>
+  <si>
+    <t>اِسْقِ</t>
+  </si>
+  <si>
+    <t>سَقْيٌ</t>
+  </si>
+  <si>
+    <t>Suladı</t>
+  </si>
+  <si>
+    <t>Suluyor / Su veriyor</t>
+  </si>
+  <si>
+    <t>Sula ! //  Su ver !</t>
+  </si>
+  <si>
+    <t>Sulamak</t>
+  </si>
+  <si>
+    <t>İnşa etti</t>
+  </si>
+  <si>
+    <t>Topladı</t>
+  </si>
+  <si>
+    <t>İyileştirdi</t>
+  </si>
+  <si>
+    <t>Ağırladı</t>
+  </si>
+  <si>
+    <t>أَتَى</t>
+  </si>
+  <si>
+    <t>بَنَى</t>
+  </si>
+  <si>
+    <t>جَنَى</t>
+  </si>
+  <si>
+    <t>شَفَى</t>
+  </si>
+  <si>
+    <t>حَمَى</t>
+  </si>
+  <si>
+    <t>قَرَى</t>
+  </si>
+  <si>
+    <t>Ver ! // Bağışla !</t>
+  </si>
+  <si>
+    <t>Bul !</t>
+  </si>
+  <si>
+    <t>Şükret !</t>
   </si>
 </sst>
 </file>
@@ -950,58 +1271,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FF000000"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="72"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Amiri Quran"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,16 +1327,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1049,69 +1386,187 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1412,1267 +1867,1737 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="52.5"/>
+  <sheetFormatPr defaultRowHeight="73.5"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" ht="35.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="88.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B55" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="B56" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="B57" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>115</v>
+      <c r="A60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>117</v>
+      <c r="A61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>119</v>
+      <c r="A62" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>121</v>
+      <c r="A63" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>123</v>
+      <c r="A64" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>125</v>
+      <c r="A65" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B91" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="6" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B92" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="29" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="6" t="s">
+      <c r="B93" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B94" s="32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>184</v>
+      <c r="A95" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>186</v>
+      <c r="A96" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>188</v>
+      <c r="A97" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>190</v>
+      <c r="A98" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>192</v>
+      <c r="A99" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>194</v>
+      <c r="A100" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>196</v>
+      <c r="A101" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>197</v>
+      <c r="A102" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>199</v>
+      <c r="A103" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>201</v>
+      <c r="A104" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>203</v>
+      <c r="A105" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>205</v>
+        <v>7</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>207</v>
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>209</v>
+        <v>11</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>211</v>
+        <v>13</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>213</v>
+      <c r="A110" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>215</v>
+      <c r="A111" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>217</v>
+      <c r="A112" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>219</v>
+        <v>24</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>221</v>
+        <v>26</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>223</v>
+      <c r="A115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>51</v>
+      <c r="A116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>226</v>
+      <c r="A117" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>228</v>
+      <c r="A118" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>230</v>
+      <c r="A119" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>232</v>
+      <c r="A120" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>11</v>
+      <c r="A121" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>235</v>
+      <c r="A122" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>237</v>
+      <c r="A123" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>239</v>
+        <v>54</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>241</v>
+      <c r="A125" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>243</v>
+      <c r="A126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>245</v>
+      <c r="A127" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>247</v>
+      <c r="A128" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>249</v>
+      <c r="A129" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>251</v>
+      <c r="A130" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>253</v>
+      <c r="A131" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>255</v>
+      <c r="A132" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B133" s="2" t="s">
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B184" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="104.25">
-      <c r="A138" s="13" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="8" t="s">
+      <c r="B185" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="12" t="s">
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="26" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" s="12" t="s">
+      <c r="B188" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="31" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B142" s="12" t="s">
+      <c r="B189" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="31" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="8" t="s">
+      <c r="B190" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B147" s="12" t="s">
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B148" s="12" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B199" s="36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B149" s="12" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B200" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B201" s="36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="8" t="s">
+    <row r="202" spans="1:2">
+      <c r="A202" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B206" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B207" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B208" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B209" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>304</v>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B214" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B214">
+      <sortCondition sortBy="cellColor" ref="A1:A214" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD5C7F-E846-4308-A409-1E287F8CD026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5B40F-F00D-4F61-88DE-BFECBFC2D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,39 +1262,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1317,8 +1291,41 @@
       <color rgb="FFFF0000"/>
       <name val="Amiri Quran"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,31 +1334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,178 +1373,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1869,1733 +1767,1733 @@
   </sheetPr>
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="73.5"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="60" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="88.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>249</v>
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B71" s="18" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>230</v>
+        <v>305</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>242</v>
+        <v>402</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>252</v>
+        <v>384</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>285</v>
+      <c r="A76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>219</v>
+      <c r="A77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>376</v>
+        <v>403</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>395</v>
+      <c r="A79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>3</v>
+      <c r="A80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>19</v>
+      <c r="A81" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>35</v>
+      <c r="A82" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>65</v>
+      <c r="A84" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>76</v>
+      <c r="A85" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>80</v>
+      <c r="A86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>89</v>
+      <c r="A87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>100</v>
+      <c r="A88" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>109</v>
+      <c r="A89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>126</v>
+      <c r="A90" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>137</v>
+      <c r="A91" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>149</v>
+      <c r="A92" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>166</v>
+      <c r="A93" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>177</v>
+      <c r="A94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>189</v>
+      <c r="A95" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>45</v>
+      <c r="A96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B105" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B102" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="29" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B106" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>10</v>
+      <c r="A107" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>12</v>
+      <c r="A108" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>280</v>
+      <c r="A109" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>15</v>
+      <c r="A110" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>17</v>
+      <c r="A111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>23</v>
+      <c r="A112" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>25</v>
+      <c r="A113" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>27</v>
+        <v>117</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>29</v>
+      <c r="A115" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>31</v>
+      <c r="A116" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>33</v>
+      <c r="A117" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>39</v>
+      <c r="A118" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>41</v>
+      <c r="A119" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>43</v>
+      <c r="A120" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>45</v>
+      <c r="A121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>47</v>
+      <c r="A122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>49</v>
+      <c r="A123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>55</v>
+        <v>113</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>29</v>
+      <c r="A125" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>58</v>
+      <c r="A126" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B129" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="11" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B142" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="11" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B163" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="24" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B166" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="27" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B170" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>210</v>
+      <c r="A171" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>212</v>
+      <c r="A172" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>10</v>
+      <c r="A173" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>215</v>
+      <c r="A174" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>222</v>
+      <c r="A175" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>224</v>
+      <c r="A176" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>226</v>
+      <c r="A177" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>234</v>
+      <c r="A178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>236</v>
+        <v>64</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B180" s="12" t="s">
-        <v>238</v>
+      <c r="A180" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>246</v>
+      <c r="A181" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>255</v>
+      <c r="A182" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>256</v>
+      <c r="A183" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>257</v>
+      <c r="A184" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>279</v>
+      <c r="A185" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="26" t="s">
+      <c r="A186" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B202" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B206" s="17" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="B199" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="B200" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B201" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="B202" s="36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="B205" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="B206" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="B207" s="28" t="s">
-        <v>114</v>
+      <c r="A207" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B208" s="28" t="s">
-        <v>383</v>
+      <c r="A208" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>289</v>
+      <c r="A209" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>398</v>
+      <c r="A210" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>399</v>
+      <c r="A211" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>400</v>
+      <c r="A212" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B212" s="21" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>29</v>
+      <c r="A213" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B213" s="21" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B214" s="14" t="s">
-        <v>401</v>
+      <c r="A214" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B214" s="21" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B214" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B214">
-      <sortCondition sortBy="cellColor" ref="A1:A214" dxfId="1"/>
+      <sortCondition ref="B1:B214"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5B40F-F00D-4F61-88DE-BFECBFC2D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD5C7F-E846-4308-A409-1E287F8CD026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,13 +1262,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1291,41 +1317,8 @@
       <color rgb="FFFF0000"/>
       <name val="Amiri Quran"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,7 +1327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,93 +1390,178 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1767,1733 +1869,1733 @@
   </sheetPr>
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="73.5"/>
   <cols>
-    <col min="1" max="1" width="60" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="37.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="88.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B39" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B65" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B69" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>91</v>
+      <c r="A70" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>343</v>
+      <c r="A71" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>289</v>
+        <v>229</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>289</v>
+        <v>241</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>379</v>
+        <v>259</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>255</v>
+        <v>266</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>74</v>
+      <c r="A76" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>94</v>
+      <c r="A77" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>398</v>
+        <v>372</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>181</v>
+      <c r="A79" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>329</v>
+      <c r="A80" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>328</v>
+      <c r="A81" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>330</v>
+      <c r="A82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>400</v>
+      <c r="A84" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>131</v>
+      <c r="A85" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>358</v>
+      <c r="A86" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>168</v>
+      <c r="A87" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>359</v>
+      <c r="A88" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B93" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>135</v>
+      <c r="A94" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>238</v>
+      <c r="A95" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>39</v>
+      <c r="A96" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>279</v>
+      <c r="A97" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>299</v>
+      <c r="A98" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>293</v>
+      <c r="A99" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>246</v>
+      <c r="A100" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>294</v>
+      <c r="A101" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>294</v>
+      <c r="A102" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>295</v>
+      <c r="A103" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>295</v>
+      <c r="A104" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>217</v>
+      <c r="A105" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>217</v>
+      <c r="A106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>217</v>
+      <c r="A107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>219</v>
+      <c r="A108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>219</v>
+      <c r="A109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>29</v>
+      <c r="A110" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>29</v>
+      <c r="A111" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>29</v>
+      <c r="A112" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>29</v>
+      <c r="A113" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>210</v>
+      <c r="A115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>105</v>
+      <c r="A116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>226</v>
+      <c r="A117" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>234</v>
+      <c r="A118" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>326</v>
+      <c r="A119" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>107</v>
+      <c r="A120" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>325</v>
+      <c r="A121" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>35</v>
+      <c r="A122" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>324</v>
+      <c r="A123" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B140" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="3" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B152" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="3" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B153" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B137" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="B138" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="6" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B155" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="6" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B163" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="B150" s="28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B167" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B167" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>25</v>
+      <c r="A168" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>236</v>
+      <c r="A169" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>187</v>
+      <c r="A170" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>283</v>
+      <c r="A171" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>228</v>
+      <c r="A172" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>232</v>
+      <c r="A173" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>230</v>
+      <c r="A174" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>369</v>
+      <c r="A175" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>257</v>
+      <c r="A176" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B177" s="17" t="s">
-        <v>297</v>
+      <c r="A177" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>332</v>
+      <c r="A178" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>65</v>
+        <v>235</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="B180" s="18" t="s">
-        <v>333</v>
+      <c r="A180" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B181" s="18" t="s">
-        <v>67</v>
+      <c r="A181" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B182" s="18" t="s">
-        <v>164</v>
+      <c r="A182" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>133</v>
+      <c r="A183" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>196</v>
+      <c r="A184" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>252</v>
+      <c r="A185" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>253</v>
+      <c r="A186" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>251</v>
+      <c r="A187" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>254</v>
+      <c r="A188" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>200</v>
+      <c r="A189" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B190" s="18" t="s">
-        <v>408</v>
+      <c r="A190" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>45</v>
+      <c r="A191" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>45</v>
+      <c r="A192" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>207</v>
+      <c r="A193" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>366</v>
+      <c r="A194" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B195" s="17" t="s">
-        <v>23</v>
+      <c r="A195" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>215</v>
+      <c r="A196" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>222</v>
+      <c r="A197" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B198" s="17" t="s">
-        <v>124</v>
+      <c r="A198" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>85</v>
+      <c r="A199" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B199" s="36" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B200" s="21" t="s">
-        <v>244</v>
+      <c r="A200" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B200" s="36" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="B201" s="21" t="s">
-        <v>240</v>
+      <c r="A201" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="B202" s="21" t="s">
-        <v>242</v>
+      <c r="A202" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B203" s="21" t="s">
-        <v>245</v>
+      <c r="A203" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B204" s="21" t="s">
-        <v>171</v>
+      <c r="A204" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>280</v>
+      <c r="A205" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" s="28" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>280</v>
+      <c r="A206" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B206" s="28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>336</v>
+      <c r="A207" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B207" s="28" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>337</v>
+      <c r="A208" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B208" s="28" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B209" s="21" t="s">
-        <v>143</v>
+      <c r="A209" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B210" s="21" t="s">
-        <v>224</v>
+      <c r="A210" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B211" s="21" t="s">
-        <v>276</v>
+      <c r="A211" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B212" s="21" t="s">
-        <v>277</v>
+      <c r="A212" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>278</v>
+      <c r="A213" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B214" s="21" t="s">
-        <v>275</v>
+      <c r="A214" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B214" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B214">
-      <sortCondition ref="B1:B214"/>
+      <sortCondition sortBy="cellColor" ref="A1:A214" dxfId="1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74C6D54-AB30-4BD4-8BFF-51088209BD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C9053-E762-4AC7-B029-6F4DAAE2362D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$B$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="508">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1544,6 +1544,9 @@
   </si>
   <si>
     <t>سَلْسَلَ</t>
+  </si>
+  <si>
+    <t>kelime_cinsi</t>
   </si>
 </sst>
 </file>
@@ -1699,16 +1702,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2012,14 +2006,15 @@
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
   <cols>
     <col min="1" max="1" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2031,1166 +2026,1169 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>174</v>
+      <c r="A4" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>144</v>
+      <c r="A7" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
+      <c r="A8" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>401</v>
+      <c r="A9" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>86</v>
+      <c r="A10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>87</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>211</v>
+      <c r="A11" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>127</v>
+        <v>453</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>443</v>
+      <c r="A17" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>193</v>
+      <c r="A18" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>194</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>281</v>
+        <v>402</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>291</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>26</v>
+      <c r="A26" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>8</v>
+      <c r="A27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
-        <v>121</v>
+      <c r="A29" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>122</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
-        <v>21</v>
+      <c r="A30" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>321</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
-        <v>18</v>
+      <c r="A31" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>320</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
+      <c r="A33" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>322</v>
+      <c r="A34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
-        <v>9</v>
+        <v>341</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>192</v>
+      <c r="A38" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>409</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
-        <v>188</v>
+      <c r="A39" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>364</v>
+      <c r="A40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>191</v>
+      <c r="A41" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>375</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>376</v>
+      <c r="A44" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
-        <v>374</v>
+      <c r="A45" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>492</v>
+      <c r="A46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
-        <v>162</v>
+      <c r="A50" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>43</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>70</v>
+      <c r="A51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="8" t="s">
-        <v>16</v>
+      <c r="A52" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
-        <v>71</v>
+      <c r="A53" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>296</v>
+        <v>406</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>202</v>
+        <v>457</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="8" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="8" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
-        <v>362</v>
+      <c r="A59" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>363</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
-        <v>178</v>
+      <c r="A60" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>348</v>
+      <c r="A61" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8" t="s">
-        <v>108</v>
+      <c r="A62" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>349</v>
+      <c r="A63" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="8" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
-        <v>203</v>
+      <c r="A65" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>464</v>
+        <v>117</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="8" t="s">
-        <v>341</v>
+      <c r="A70" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>80</v>
+      <c r="A71" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>49</v>
+        <v>389</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="8" t="s">
-        <v>92</v>
+      <c r="A73" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>89</v>
+      <c r="A74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>91</v>
+      <c r="A75" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="8" t="s">
-        <v>344</v>
+      <c r="A76" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>343</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>289</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>289</v>
+        <v>481</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>379</v>
+        <v>146</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>437</v>
+      <c r="A80" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>473</v>
+      <c r="A81" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>416</v>
+      <c r="A82" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
-        <v>262</v>
+      <c r="A83" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>417</v>
+        <v>46</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>466</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>94</v>
+        <v>502</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>398</v>
+      <c r="A89" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>489</v>
+      <c r="A90" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
-        <v>180</v>
+      <c r="A91" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="8" t="s">
-        <v>52</v>
+      <c r="A93" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="8" t="s">
-        <v>331</v>
+      <c r="A94" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>330</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>442</v>
+        <v>42</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>400</v>
+        <v>30</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>468</v>
+      <c r="A98" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>131</v>
+        <v>422</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="8" t="s">
-        <v>169</v>
+      <c r="A100" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>358</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>167</v>
+        <v>390</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>166</v>
+      <c r="A103" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6" t="s">
-        <v>182</v>
+      <c r="A104" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>436</v>
+      <c r="A105" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>98</v>
+        <v>482</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>465</v>
+      <c r="A107" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="6" t="s">
-        <v>95</v>
+      <c r="A108" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="6" t="s">
-        <v>318</v>
+      <c r="A109" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6" t="s">
-        <v>237</v>
+      <c r="A111" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>38</v>
+      <c r="A112" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>279</v>
+        <v>405</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>299</v>
+        <v>386</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
-        <v>309</v>
+      <c r="A115" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>294</v>
+      <c r="A117" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="8" t="s">
-        <v>313</v>
+      <c r="A119" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="8" t="s">
-        <v>368</v>
+      <c r="A120" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>295</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="8" t="s">
-        <v>310</v>
+      <c r="A121" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>217</v>
+      <c r="A122" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="6" t="s">
-        <v>317</v>
+      <c r="A123" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="8" t="s">
-        <v>216</v>
+      <c r="A124" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="8" t="s">
-        <v>311</v>
+      <c r="A125" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>219</v>
+      <c r="A126" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>29</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>29</v>
+      <c r="A132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>440</v>
+        <v>28</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>438</v>
+        <v>180</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>210</v>
+        <v>387</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="6" t="s">
-        <v>233</v>
+      <c r="A139" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="8" t="s">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>469</v>
+      <c r="A141" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="6" t="s">
-        <v>106</v>
+      <c r="A142" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="8" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="8" t="s">
-        <v>34</v>
+      <c r="A144" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>35</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="8" t="s">
-        <v>36</v>
+      <c r="A145" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>114</v>
+      <c r="A146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3203,954 +3201,950 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>292</v>
+        <v>407</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>12</v>
+      <c r="A149" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>41</v>
+        <v>446</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>76</v>
+      <c r="A157" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>76</v>
+        <v>429</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>335</v>
+      <c r="A159" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>494</v>
+        <v>144</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>157</v>
+        <v>380</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>306</v>
+        <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>382</v>
+      <c r="A166" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="6" t="s">
-        <v>160</v>
+      <c r="A167" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>161</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="8" t="s">
-        <v>478</v>
+        <v>176</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>471</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>185</v>
+      <c r="A169" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="6" t="s">
-        <v>184</v>
+      <c r="A170" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="6" t="s">
-        <v>263</v>
+      <c r="A171" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>256</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="8" t="s">
-        <v>152</v>
+      <c r="A173" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="8" t="s">
-        <v>148</v>
+      <c r="A174" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="8" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="8" t="s">
-        <v>356</v>
+      <c r="A176" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>470</v>
+        <v>316</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>282</v>
+        <v>425</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>472</v>
+      <c r="A179" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="6" t="s">
-        <v>119</v>
+      <c r="A180" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>381</v>
+      <c r="A181" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>345</v>
+      <c r="A183" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>100</v>
+      <c r="A184" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>346</v>
+      <c r="A185" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="8" t="s">
-        <v>101</v>
+      <c r="A186" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="8" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>6</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="8" t="s">
-        <v>4</v>
+      <c r="A188" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>249</v>
+      <c r="A189" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>3</v>
+      <c r="A190" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="8" t="s">
-        <v>392</v>
+      <c r="A191" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>396</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="8" t="s">
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="8" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>397</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="8" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>395</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>474</v>
+        <v>213</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="6" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="6" t="s">
-        <v>197</v>
+      <c r="A197" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>15</v>
+      <c r="A198" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="6" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>399</v>
+        <v>197</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>25</v>
+      <c r="A201" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="8" t="s">
-        <v>427</v>
+      <c r="A203" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>434</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>435</v>
+        <v>195</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>432</v>
+        <v>199</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>187</v>
+        <v>448</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>462</v>
+      <c r="A209" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>460</v>
+        <v>225</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>463</v>
+        <v>203</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>461</v>
+        <v>201</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="8" t="s">
-        <v>227</v>
+      <c r="A213" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>232</v>
+      <c r="A214" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="8" t="s">
-        <v>229</v>
+      <c r="A215" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="8" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>369</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="6" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>332</v>
+      <c r="A219" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B220" s="11" t="s">
-        <v>65</v>
+      <c r="A220" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="8" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="8" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>164</v>
+        <v>447</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>133</v>
+        <v>486</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="6" t="s">
-        <v>195</v>
+      <c r="A225" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="8" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="8" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="8" t="s">
-        <v>258</v>
+      <c r="A228" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="8" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="6" t="s">
-        <v>199</v>
+      <c r="A230" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>441</v>
+      <c r="A231" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="8" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="6" t="s">
-        <v>44</v>
+      <c r="A233" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="8" t="s">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>45</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="8" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="8" t="s">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="8" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="6" t="s">
-        <v>214</v>
+      <c r="A238" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="6" t="s">
-        <v>123</v>
+      <c r="A240" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="8" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>411</v>
+      <c r="A242" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>414</v>
+      <c r="A243" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>412</v>
+      <c r="A244" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="8" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>85</v>
+        <v>320</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="8" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="8" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="8" t="s">
-        <v>248</v>
+      <c r="A249" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>171</v>
+        <v>445</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="6" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="8" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="6" t="s">
-        <v>270</v>
+      <c r="A254" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>280</v>
+        <v>433</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>497</v>
+      <c r="A256" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>336</v>
+      <c r="A257" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="8" t="s">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>337</v>
+        <v>207</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>143</v>
+        <v>477</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="6" t="s">
-        <v>223</v>
+      <c r="A260" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>499</v>
+      <c r="A261" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="8" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="8" t="s">
-        <v>267</v>
+      <c r="A263" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>275</v>
+      <c r="A265" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B214" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B265">
-      <sortCondition ref="B1:B214"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A420FD-86B1-4159-B94B-FEB1C0157FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1335C19-8850-435A-B788-FEEC7E8F74FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2043,671 +2043,672 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>494</v>
+      <c r="A2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>235</v>
+      <c r="A4" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>230</v>
+      <c r="A5" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>242</v>
+      <c r="A6" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>219</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>470</v>
+      <c r="A8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>412</v>
+      <c r="A10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>324</v>
+      <c r="A11" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>433</v>
+      <c r="A12" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>489</v>
+      <c r="A15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>461</v>
+      <c r="A16" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>438</v>
+      <c r="A17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>237</v>
+      <c r="A18" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>238</v>
+        <v>471</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>228</v>
+        <v>413</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>167</v>
+        <v>427</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>168</v>
+        <v>434</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>5</v>
+        <v>453</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>150</v>
+        <v>392</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>151</v>
+        <v>396</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
-        <v>247</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>139</v>
+        <v>410</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>510</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>240</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>67</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>233</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>91</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>440</v>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>366</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>493</v>
+    <row r="48" spans="1:7">
+      <c r="A48" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>221</v>
+      <c r="A49" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>223</v>
+      <c r="A50" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="6" t="s">
-        <v>263</v>
+      <c r="A52" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>280</v>
+      <c r="A53" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
-        <v>214</v>
+      <c r="A54" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>201</v>
+      <c r="A55" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>203</v>
+      <c r="A56" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>225</v>
+      <c r="A57" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>29</v>
+      <c r="A58" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>264</v>
+      <c r="A59" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>441</v>
+      <c r="A60" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>443</v>
+      <c r="A61" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>508</v>
@@ -2715,21 +2716,21 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="6" t="s">
-        <v>209</v>
+      <c r="A64" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>508</v>
@@ -2737,21 +2738,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>442</v>
+      <c r="A66" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>508</v>
@@ -2759,43 +2760,43 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="6" t="s">
-        <v>211</v>
+      <c r="A68" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>492</v>
+      <c r="A69" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="8" t="s">
-        <v>258</v>
+      <c r="A70" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>508</v>
@@ -2803,54 +2804,54 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="6" t="s">
-        <v>213</v>
+      <c r="A72" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="8" t="s">
-        <v>216</v>
+      <c r="A73" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>295</v>
+      <c r="A74" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="8" t="s">
-        <v>188</v>
+      <c r="A75" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>508</v>
@@ -2858,10 +2859,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>508</v>
@@ -2869,10 +2870,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>185</v>
+        <v>203</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>508</v>
@@ -2880,43 +2881,43 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>472</v>
+        <v>225</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>157</v>
+        <v>444</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="8" t="s">
-        <v>208</v>
+      <c r="A80" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>408</v>
+        <v>257</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>217</v>
+        <v>448</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>508</v>
@@ -2924,21 +2925,21 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="8" t="s">
-        <v>327</v>
+      <c r="A83" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>508</v>
@@ -2946,54 +2947,54 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>414</v>
+        <v>195</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>411</v>
+        <v>209</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="8" t="s">
-        <v>14</v>
+      <c r="A86" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>8</v>
+      <c r="A87" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="8" t="s">
-        <v>34</v>
+      <c r="A88" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>508</v>
@@ -3001,10 +3002,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>432</v>
+        <v>211</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>508</v>
@@ -3012,186 +3013,186 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>297</v>
+        <v>487</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="6" t="s">
-        <v>318</v>
+      <c r="A91" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="8" t="s">
-        <v>83</v>
+      <c r="A92" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="6" t="s">
-        <v>44</v>
+      <c r="A94" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6" t="s">
-        <v>186</v>
+      <c r="A95" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="8" t="s">
-        <v>350</v>
+      <c r="A96" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>109</v>
+      <c r="A97" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="8" t="s">
-        <v>323</v>
+      <c r="A98" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="8" t="s">
-        <v>176</v>
+      <c r="A99" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>361</v>
+      <c r="A100" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>164</v>
+        <v>418</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="6" t="s">
-        <v>40</v>
+      <c r="A103" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>380</v>
+      <c r="A104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>490</v>
+      <c r="A105" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>145</v>
+        <v>425</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>508</v>
@@ -3199,10 +3200,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>469</v>
+        <v>316</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>508</v>
@@ -3210,10 +3211,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>464</v>
+        <v>318</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>508</v>
@@ -3221,10 +3222,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>436</v>
+        <v>48</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>508</v>
@@ -3232,10 +3233,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>508</v>
@@ -3243,32 +3244,32 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>463</v>
+      <c r="A112" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>460</v>
+      <c r="A113" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>508</v>
@@ -3276,10 +3277,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>379</v>
+        <v>163</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>508</v>
@@ -3287,10 +3288,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>508</v>
@@ -3298,10 +3299,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>292</v>
+        <v>385</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>508</v>
@@ -3309,21 +3310,21 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>439</v>
+        <v>144</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>508</v>
@@ -3331,10 +3332,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>508</v>
@@ -3342,21 +3343,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>114</v>
+        <v>429</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="8" t="s">
-        <v>11</v>
+      <c r="A121" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>508</v>
@@ -3364,10 +3365,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>508</v>
@@ -3375,65 +3376,65 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>280</v>
+        <v>451</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>358</v>
+      <c r="A124" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="8" t="s">
-        <v>360</v>
+      <c r="A125" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>359</v>
+        <v>72</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="8" t="s">
-        <v>54</v>
+      <c r="A126" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>27</v>
+      <c r="A127" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>166</v>
+      <c r="A128" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>508</v>
@@ -3441,21 +3442,21 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="6" t="s">
-        <v>32</v>
+      <c r="A130" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>508</v>
@@ -3463,10 +3464,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>382</v>
+        <v>309</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>508</v>
@@ -3474,32 +3475,32 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="6" t="s">
-        <v>180</v>
+      <c r="A133" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="6" t="s">
-        <v>28</v>
+      <c r="A134" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>508</v>
@@ -3507,10 +3508,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>508</v>
@@ -3518,10 +3519,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>508</v>
@@ -3529,10 +3530,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>508</v>
@@ -3540,10 +3541,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>183</v>
+        <v>387</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>508</v>
@@ -3551,10 +3552,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>465</v>
+        <v>319</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>508</v>
@@ -3562,10 +3563,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>498</v>
+        <v>180</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>508</v>
@@ -3573,21 +3574,21 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>417</v>
+        <v>28</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="6" t="s">
-        <v>142</v>
+      <c r="A142" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>508</v>
@@ -3595,32 +3596,32 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="8" t="s">
-        <v>22</v>
+      <c r="A144" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="8" t="s">
-        <v>24</v>
+      <c r="A145" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>508</v>
@@ -3628,10 +3629,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>173</v>
+        <v>456</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>508</v>
@@ -3639,10 +3640,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>29</v>
+        <v>505</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>508</v>
@@ -3650,43 +3651,43 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>288</v>
+        <v>424</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="8" t="s">
-        <v>250</v>
+      <c r="A149" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>468</v>
+        <v>170</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="6" t="s">
-        <v>62</v>
+      <c r="A151" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>508</v>
@@ -3694,10 +3695,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="8" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>508</v>
@@ -3705,10 +3706,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>381</v>
+        <v>172</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>508</v>
@@ -3716,10 +3717,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>400</v>
+        <v>273</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>508</v>
@@ -3727,21 +3728,21 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="6" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>70</v>
+      <c r="A156" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>508</v>
@@ -3749,10 +3750,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="6" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>508</v>
@@ -3760,131 +3761,131 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>347</v>
+        <v>2</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>153</v>
+      <c r="A159" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>357</v>
+      <c r="A160" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>475</v>
+        <v>162</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>51</v>
+      <c r="A162" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="8" t="s">
-        <v>331</v>
+      <c r="A163" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B166" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="8" t="s">
+      <c r="C166" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="8" t="s">
+      <c r="C167" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="6" t="s">
+      <c r="C168" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B169" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>508</v>
@@ -3892,32 +3893,32 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B172" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>508</v>
@@ -3925,43 +3926,43 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B175" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="6" t="s">
+      <c r="C175" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>508</v>
@@ -3969,43 +3970,43 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>277</v>
+      <c r="A178" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>495</v>
+        <v>157</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>496</v>
+        <v>46</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>508</v>
@@ -4013,32 +4014,32 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>157</v>
+        <v>104</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="6" t="s">
-        <v>46</v>
+      <c r="A182" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="6" t="s">
-        <v>104</v>
+      <c r="A183" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>508</v>
@@ -4046,43 +4047,43 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="8" t="s">
-        <v>300</v>
+      <c r="A185" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>253</v>
+      <c r="A186" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>137</v>
+      <c r="A187" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>508</v>
@@ -4090,10 +4091,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>508</v>
@@ -4101,21 +4102,21 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>474</v>
+        <v>423</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>467</v>
+      <c r="A190" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>508</v>
@@ -4123,10 +4124,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>508</v>
@@ -4134,32 +4135,32 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="8" t="s">
-        <v>16</v>
+      <c r="A193" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="6" t="s">
-        <v>154</v>
+      <c r="A194" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>508</v>
@@ -4167,54 +4168,54 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>383</v>
+        <v>117</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>354</v>
+      <c r="A196" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>281</v>
+        <v>431</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="8" t="s">
-        <v>374</v>
+      <c r="A198" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>375</v>
+      <c r="A199" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>508</v>
@@ -4222,10 +4223,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>508</v>
@@ -4233,10 +4234,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>497</v>
+        <v>315</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>508</v>
@@ -4244,32 +4245,32 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>294</v>
+      <c r="A203" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>437</v>
+        <v>59</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>508</v>
@@ -4277,9 +4278,9 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B205" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -4287,11 +4288,11 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>217</v>
+      <c r="A206" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>508</v>
@@ -4299,20 +4300,20 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B208" s="9" t="s">
+      <c r="A208" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -4320,44 +4321,44 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="8" t="s">
-        <v>310</v>
+      <c r="A209" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>337</v>
+      <c r="A210" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>466</v>
+        <v>73</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="6" t="s">
-        <v>59</v>
+      <c r="A212" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>508</v>
@@ -4365,65 +4366,65 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>29</v>
+        <v>305</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>280</v>
+      <c r="A214" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="6" t="s">
-        <v>158</v>
+      <c r="A215" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>76</v>
+      <c r="A216" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>409</v>
+      <c r="A217" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>508</v>
@@ -4431,10 +4432,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>399</v>
+        <v>121</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>508</v>
@@ -4442,43 +4443,43 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="8" t="s">
-        <v>38</v>
+      <c r="A221" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>289</v>
+      <c r="A222" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>114</v>
+      <c r="A223" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>508</v>
@@ -4486,54 +4487,54 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="8" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="8" t="s">
-        <v>334</v>
+      <c r="A225" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>398</v>
+        <v>93</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>65</v>
+      <c r="A227" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>124</v>
+      <c r="A228" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>508</v>
@@ -4541,10 +4542,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>508</v>
@@ -4552,10 +4553,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>508</v>
@@ -4563,394 +4564,393 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>340</v>
+      <c r="A232" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>80</v>
+      <c r="A233" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="8" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="8" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="6" t="s">
-        <v>95</v>
+      <c r="A236" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>94</v>
+        <v>477</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="8" t="s">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>133</v>
+        <v>419</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>89</v>
+      <c r="A240" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>131</v>
+        <v>426</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="6" t="s">
-        <v>97</v>
+      <c r="A242" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="6" t="s">
-        <v>86</v>
+      <c r="A243" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>353</v>
+      <c r="A245" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>351</v>
+      <c r="A246" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>420</v>
+        <v>52</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>427</v>
+        <v>101</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>453</v>
+        <v>301</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>462</v>
+        <v>285</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="8" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="8" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="8" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>410</v>
+        <v>67</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="8" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>373</v>
+        <v>127</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G264" s="7"/>
-    </row>
-    <row r="265" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
-      <sortCondition descending="1" ref="A1"/>
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1335C19-8850-435A-B788-FEEC7E8F74FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD62BC3-DA54-4B32-8F9B-00C9804CE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$G$265</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="523">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1255,9 +1255,6 @@
     <t>Bul !</t>
   </si>
   <si>
-    <t>Şükret !</t>
-  </si>
-  <si>
     <t>Yasakladı</t>
   </si>
   <si>
@@ -1559,6 +1556,42 @@
   </si>
   <si>
     <t>Muzari</t>
+  </si>
+  <si>
+    <t>1.Bap</t>
+  </si>
+  <si>
+    <t>Sahih</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>12.SAYFA</t>
+  </si>
+  <si>
+    <t>Şükret ! // Teşekkür et !</t>
+  </si>
+  <si>
+    <t>13.SAYFA</t>
+  </si>
+  <si>
+    <t>Şükredildi</t>
+  </si>
+  <si>
+    <t>Şükrediliyor // teşekkür ediliyor</t>
+  </si>
+  <si>
+    <t>Meçhul Mazi</t>
+  </si>
+  <si>
+    <t>Meçhul Muzari</t>
+  </si>
+  <si>
+    <t>شُكِرَ</t>
+  </si>
+  <si>
+    <t>يٌشْكَرُ</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2048,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
@@ -2039,15 +2072,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>408</v>
+      <c r="A2" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>510</v>
@@ -2055,43 +2088,43 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>176</v>
+      <c r="A4" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>490</v>
+      <c r="A5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>439</v>
+      <c r="A6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>510</v>
@@ -2099,21 +2132,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>153</v>
+      <c r="A8" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>510</v>
@@ -2121,43 +2154,43 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>277</v>
+      <c r="A10" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>495</v>
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>253</v>
+      <c r="A12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>510</v>
@@ -2165,10 +2198,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>510</v>
@@ -2176,715 +2209,726 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>351</v>
+      <c r="A15" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>232</v>
+      <c r="A16" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>342</v>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>478</v>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>471</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>413</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
-        <v>427</v>
+        <v>167</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>434</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>453</v>
+        <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>396</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>410</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>491</v>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>440</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>359</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="8" t="s">
-        <v>250</v>
+      <c r="A49" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="8" t="s">
-        <v>347</v>
+      <c r="A50" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>346</v>
+        <v>224</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="8" t="s">
-        <v>331</v>
+      <c r="A52" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>278</v>
+      <c r="A53" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
-        <v>355</v>
+      <c r="A54" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="8" t="s">
-        <v>374</v>
+      <c r="A55" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="8" t="s">
-        <v>313</v>
+      <c r="A56" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="8" t="s">
-        <v>338</v>
+      <c r="A57" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>333</v>
+      <c r="A58" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="8" t="s">
-        <v>341</v>
+      <c r="A59" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>343</v>
+      <c r="A60" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>353</v>
+      <c r="A61" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="8" t="s">
-        <v>227</v>
+      <c r="A64" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>240</v>
+      <c r="A66" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="8" t="s">
-        <v>261</v>
+      <c r="A68" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>364</v>
+      <c r="A69" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="6" t="s">
-        <v>221</v>
+      <c r="A70" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="8" t="s">
-        <v>205</v>
+      <c r="A72" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="6" t="s">
-        <v>263</v>
+      <c r="A73" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>280</v>
+      <c r="A74" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6" t="s">
-        <v>214</v>
+      <c r="A75" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>204</v>
+        <v>475</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>226</v>
+        <v>478</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>508</v>
@@ -2892,252 +2936,276 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>29</v>
+        <v>156</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6" t="s">
-        <v>264</v>
+      <c r="A80" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>257</v>
+        <v>408</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>441</v>
+        <v>317</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="6" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="6" t="s">
-        <v>199</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>196</v>
+        <v>420</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:7">
       <c r="A85" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>210</v>
+        <v>417</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="6" t="s">
-        <v>193</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>442</v>
+        <v>507</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="6" t="s">
-        <v>197</v>
+        <v>507</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>212</v>
+        <v>424</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>492</v>
+        <v>316</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="8" t="s">
-        <v>258</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="6" t="s">
-        <v>184</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>185</v>
+        <v>339</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="6" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="8" t="s">
-        <v>216</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="8" t="s">
-        <v>188</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="6" t="s">
-        <v>262</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>185</v>
+      <c r="A97" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="6" t="s">
-        <v>156</v>
+      <c r="A98" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="6" t="s">
-        <v>317</v>
+      <c r="A99" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>217</v>
+        <v>361</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>435</v>
+      <c r="A100" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>508</v>
@@ -3145,648 +3213,684 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>411</v>
+        <v>163</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="8" t="s">
-        <v>14</v>
+      <c r="A103" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>8</v>
+      <c r="A104" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>35</v>
+      <c r="A105" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>432</v>
+        <v>144</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>297</v>
+        <v>454</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>298</v>
+        <v>454</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>49</v>
+        <v>428</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>109</v>
+      <c r="A112" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>177</v>
+    <row r="113" spans="1:7">
+      <c r="A113" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>164</v>
+        <v>384</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>380</v>
+        <v>308</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>145</v>
+        <v>445</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="6" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="6" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>436</v>
+        <v>113</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="6" t="s">
-        <v>119</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>507</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="6" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>460</v>
+        <v>270</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>379</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>358</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="6" t="s">
-        <v>71</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="6" t="s">
-        <v>308</v>
+    <row r="126" spans="1:7">
+      <c r="A126" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>473</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>401</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="8" t="s">
-        <v>11</v>
+      <c r="A130" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>293</v>
+        <v>387</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="8" t="s">
-        <v>54</v>
+      <c r="A133" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="8" t="s">
-        <v>26</v>
+      <c r="A134" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>382</v>
+        <v>182</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>299</v>
+        <v>455</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>181</v>
+        <v>504</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>29</v>
+        <v>423</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="8" t="s">
-        <v>18</v>
+      <c r="A142" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="6" t="s">
-        <v>307</v>
+      <c r="A144" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="6" t="s">
-        <v>182</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>465</v>
+        <v>172</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>498</v>
+        <v>273</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>417</v>
+        <v>304</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="6" t="s">
-        <v>142</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>171</v>
+        <v>458</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="8" t="s">
-        <v>22</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="8" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>507</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>173</v>
+        <v>386</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>29</v>
+        <v>405</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="6" t="s">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>468</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="6" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="8" t="s">
-        <v>2</v>
+        <v>347</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>3</v>
+        <v>346</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>381</v>
+    <row r="159" spans="1:7">
+      <c r="A159" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>400</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>508</v>
@@ -3794,32 +3898,32 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>43</v>
+        <v>481</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>70</v>
+      <c r="A162" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="6" t="s">
-        <v>314</v>
+      <c r="A163" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>508</v>
@@ -3827,681 +3931,717 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="6" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>51</v>
+      <c r="A165" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>499</v>
+      <c r="A166" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>394</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="8" t="s">
-        <v>393</v>
+      <c r="A167" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>397</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>394</v>
+      <c r="A168" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="6" t="s">
-        <v>60</v>
+      <c r="A169" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>415</v>
+        <v>30</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="8" t="s">
-        <v>148</v>
+      <c r="A171" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>31</v>
+      <c r="A172" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>100</v>
+      <c r="A174" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="6" t="s">
-        <v>106</v>
+      <c r="A175" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="6" t="s">
-        <v>272</v>
+      <c r="A176" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>496</v>
+      <c r="A178" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>157</v>
+        <v>494</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>47</v>
+        <v>502</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>284</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B187" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>416</v>
+        <v>480</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>473</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>17</v>
+      <c r="A190" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B195" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>497</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:7">
       <c r="A197" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>437</v>
+        <v>271</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="6" t="s">
-        <v>56</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>29</v>
+        <v>378</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>217</v>
+    <row r="199" spans="1:7">
+      <c r="A199" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>76</v>
+        <v>503</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>466</v>
+    <row r="203" spans="1:7">
+      <c r="A203" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>41</v>
+        <v>430</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>280</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="6" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B208" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="6" t="s">
-        <v>57</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>399</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:7">
       <c r="A211" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="8" t="s">
+      <c r="C220" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B221" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="6" t="s">
+      <c r="C221" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B222" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="6" t="s">
+      <c r="C222" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B223" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="8" t="s">
+      <c r="C223" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B224" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B217" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B222" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C224" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="6" t="s">
-        <v>95</v>
+      <c r="A225" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>96</v>
+        <v>333</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>508</v>
@@ -4509,448 +4649,548 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>94</v>
+        <v>403</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>133</v>
+      <c r="A227" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>89</v>
+      <c r="A228" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>289</v>
+      <c r="A232" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>494</v>
+      <c r="A233" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="8" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="8" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="8" t="s">
-        <v>218</v>
+      <c r="A236" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>470</v>
+        <v>93</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="8" t="s">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>207</v>
+        <v>343</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>412</v>
+        <v>132</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>324</v>
+      <c r="A240" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>433</v>
+        <v>130</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="8" t="s">
-        <v>110</v>
+      <c r="A242" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="8" t="s">
-        <v>178</v>
+      <c r="A243" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>461</v>
+      <c r="A245" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>438</v>
+      <c r="A246" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>52</v>
+        <v>419</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>301</v>
+        <v>452</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C257" s="2" t="s">
+    <row r="263" spans="1:7">
+      <c r="A263" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F266" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C258" s="2" t="s">
+      <c r="G266" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>511</v>
-      </c>
+      <c r="G267" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="8"/>
+      <c r="B268" s="9"/>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="8"/>
+      <c r="B269" s="9"/>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="8"/>
+      <c r="B270" s="9"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="8"/>
+      <c r="B271" s="9"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="8"/>
+      <c r="B272" s="9"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="8"/>
+      <c r="B273" s="9"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="8"/>
+      <c r="B274" s="9"/>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="8"/>
+      <c r="B275" s="9"/>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="8"/>
+      <c r="B276" s="9"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="8"/>
+      <c r="B277" s="9"/>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="8"/>
+      <c r="B278" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:G265" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
-      <sortCondition ref="C1"/>
+      <sortCondition descending="1" ref="A1:A265"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD62BC3-DA54-4B32-8F9B-00C9804CE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ADC795-099F-41F4-B37A-E21FDFC7389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1591,7 +1591,7 @@
     <t>شُكِرَ</t>
   </si>
   <si>
-    <t>يٌشْكَرُ</t>
+    <t>يُشْكَرُ</t>
   </si>
 </sst>
 </file>
@@ -2050,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:G278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ADC795-099F-41F4-B37A-E21FDFC7389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E411CB3-7158-46C0-B79C-83855408C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$G$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$D$278</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="520">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1558,24 +1558,12 @@
     <t>Muzari</t>
   </si>
   <si>
-    <t>1.Bap</t>
-  </si>
-  <si>
     <t>Sahih</t>
   </si>
   <si>
-    <t>Salim</t>
-  </si>
-  <si>
-    <t>12.SAYFA</t>
-  </si>
-  <si>
     <t>Şükret ! // Teşekkür et !</t>
   </si>
   <si>
-    <t>13.SAYFA</t>
-  </si>
-  <si>
     <t>Şükredildi</t>
   </si>
   <si>
@@ -1592,13 +1580,16 @@
   </si>
   <si>
     <t>يُشْكَرُ</t>
+  </si>
+  <si>
+    <t>ses_doyası</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,13 +1636,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1709,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1723,7 +1707,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1740,7 +1723,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2048,10 +2031,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
@@ -2059,23 +2042,25 @@
     <col min="1" max="1" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>500</v>
       </c>
@@ -2086,62 +2071,62 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>476</v>
       </c>
@@ -2152,18 +2137,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>418</v>
       </c>
@@ -2174,18 +2159,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>425</v>
       </c>
@@ -2196,29 +2181,29 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>483</v>
       </c>
@@ -2229,7 +2214,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>451</v>
       </c>
@@ -2240,7 +2225,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>444</v>
       </c>
@@ -2251,177 +2236,168 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>510</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F23" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>328</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>395</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2429,10 +2405,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>376</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2440,10 +2416,10 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2451,10 +2427,10 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>335</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2462,10 +2438,10 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2473,10 +2449,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2484,10 +2460,10 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2498,7 +2474,7 @@
       <c r="A39" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2506,10 +2482,10 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2517,10 +2493,10 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2528,10 +2504,10 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2561,10 +2537,10 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2572,10 +2548,10 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>364</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2583,10 +2559,10 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2608,7 +2584,7 @@
       <c r="A49" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2619,7 +2595,7 @@
       <c r="A50" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2627,10 +2603,10 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2641,7 +2617,7 @@
       <c r="A52" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2663,7 +2639,7 @@
       <c r="A54" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2674,7 +2650,7 @@
       <c r="A55" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2685,7 +2661,7 @@
       <c r="A56" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2696,7 +2672,7 @@
       <c r="A57" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2718,7 +2694,7 @@
       <c r="A59" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2751,7 +2727,7 @@
       <c r="A62" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2762,7 +2738,7 @@
       <c r="A63" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2773,7 +2749,7 @@
       <c r="A64" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2784,7 +2760,7 @@
       <c r="A65" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2806,7 +2782,7 @@
       <c r="A67" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2817,7 +2793,7 @@
       <c r="A68" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2836,10 +2812,10 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2850,7 +2826,7 @@
       <c r="A71" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2861,7 +2837,7 @@
       <c r="A72" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2869,10 +2845,10 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2880,10 +2856,10 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2891,10 +2867,10 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2905,7 +2881,7 @@
       <c r="A76" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2938,7 +2914,7 @@
       <c r="A79" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2946,28 +2922,28 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>408</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
         <v>427</v>
       </c>
@@ -2978,18 +2954,18 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:4">
       <c r="A84" s="6" t="s">
         <v>420</v>
       </c>
@@ -3000,7 +2976,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
         <v>417</v>
       </c>
@@ -3011,64 +2987,46 @@
         <v>507</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F86" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="8" t="s">
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F87" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="8" t="s">
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:4">
       <c r="A89" s="6" t="s">
         <v>424</v>
       </c>
@@ -3079,77 +3037,77 @@
         <v>507</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="8" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:4">
       <c r="A93" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:4">
       <c r="A94" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:4">
       <c r="A95" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>349</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3157,10 +3115,10 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3168,10 +3126,10 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3179,10 +3137,10 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3190,10 +3148,10 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3201,10 +3159,10 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3215,7 +3173,7 @@
       <c r="A102" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3226,7 +3184,7 @@
       <c r="A103" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3259,7 +3217,7 @@
       <c r="A106" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -3303,7 +3261,7 @@
       <c r="A110" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3314,7 +3272,7 @@
       <c r="A111" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -3332,7 +3290,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
         <v>450</v>
       </c>
@@ -3343,7 +3301,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>384</v>
       </c>
@@ -3354,29 +3312,29 @@
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>445</v>
       </c>
@@ -3387,7 +3345,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>479</v>
       </c>
@@ -3398,7 +3356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
         <v>407</v>
       </c>
@@ -3409,111 +3367,102 @@
         <v>507</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F121" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>293</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:4">
       <c r="A123" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="8" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>358</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>359</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3524,7 +3473,7 @@
       <c r="A129" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -3535,7 +3484,7 @@
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -3557,7 +3506,7 @@
       <c r="A132" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -3568,7 +3517,7 @@
       <c r="A133" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -3579,7 +3528,7 @@
       <c r="A134" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -3587,10 +3536,10 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -3601,7 +3550,7 @@
       <c r="A136" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -3612,7 +3561,7 @@
       <c r="A137" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3623,7 +3572,7 @@
       <c r="A138" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3667,7 +3616,7 @@
       <c r="A142" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -3678,7 +3627,7 @@
       <c r="A143" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -3686,84 +3635,75 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="8" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:4">
       <c r="A146" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:4">
       <c r="A148" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="8" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>508</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F149" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
         <v>458</v>
       </c>
@@ -3774,41 +3714,32 @@
         <v>507</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="8" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F152" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G152" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>386</v>
       </c>
@@ -3819,7 +3750,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
         <v>405</v>
       </c>
@@ -3830,66 +3761,66 @@
         <v>507</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="8" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="8" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>346</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="8" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="8" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -3908,10 +3839,10 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -3919,10 +3850,10 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -3941,10 +3872,10 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>397</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -3952,10 +3883,10 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>394</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -3966,7 +3897,7 @@
       <c r="A167" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -3985,10 +3916,10 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -3999,7 +3930,7 @@
       <c r="A170" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -4010,7 +3941,7 @@
       <c r="A171" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -4018,10 +3949,10 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -4032,7 +3963,7 @@
       <c r="A173" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -4043,7 +3974,7 @@
       <c r="A174" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -4051,10 +3982,10 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -4062,10 +3993,10 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -4073,10 +4004,10 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4084,10 +4015,10 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -4131,7 +4062,7 @@
       <c r="A182" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -4142,7 +4073,7 @@
       <c r="A183" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -4150,10 +4081,10 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -4161,10 +4092,10 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -4172,10 +4103,10 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -4183,10 +4114,10 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -4197,7 +4128,7 @@
       <c r="A188" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -4208,7 +4139,7 @@
       <c r="A189" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -4230,7 +4161,7 @@
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -4248,41 +4179,32 @@
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="8" t="s">
+    <row r="193" spans="1:4">
+      <c r="A193" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F193" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
         <v>389</v>
       </c>
@@ -4293,62 +4215,62 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="8" t="s">
+    <row r="196" spans="1:4">
+      <c r="A196" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>354</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="8" t="s">
+    <row r="198" spans="1:4">
+      <c r="A198" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>378</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="8" t="s">
+    <row r="199" spans="1:4">
+      <c r="A199" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>375</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
         <v>503</v>
       </c>
@@ -4359,29 +4281,29 @@
         <v>507</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="8" t="s">
+    <row r="202" spans="1:4">
+      <c r="A202" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="8" t="s">
+    <row r="203" spans="1:4">
+      <c r="A203" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
         <v>430</v>
       </c>
@@ -4392,18 +4314,18 @@
         <v>507</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
         <v>429</v>
       </c>
@@ -4414,51 +4336,51 @@
         <v>507</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="8" t="s">
+    <row r="209" spans="1:4">
+      <c r="A209" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="8" t="s">
+    <row r="210" spans="1:4">
+      <c r="A210" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>337</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
         <v>456</v>
       </c>
@@ -4469,18 +4391,18 @@
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
         <v>406</v>
       </c>
@@ -4491,74 +4413,65 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="8" t="s">
+    <row r="214" spans="1:4">
+      <c r="A214" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F214" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G214" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="10" t="s">
+    <row r="216" spans="1:4">
+      <c r="A216" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="8" t="s">
+    <row r="217" spans="1:4">
+      <c r="A217" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>409</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
         <v>404</v>
       </c>
@@ -4569,40 +4482,40 @@
         <v>507</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="8" t="s">
+    <row r="221" spans="1:4">
+      <c r="A221" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
         <v>388</v>
       </c>
@@ -4613,34 +4526,25 @@
         <v>507</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="8" t="s">
+    <row r="224" spans="1:4">
+      <c r="A224" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F224" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G224" s="2" t="s">
-        <v>516</v>
-      </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>333</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -4659,10 +4563,10 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -4673,7 +4577,7 @@
       <c r="A228" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -4684,7 +4588,7 @@
       <c r="A229" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -4695,7 +4599,7 @@
       <c r="A230" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -4706,7 +4610,7 @@
       <c r="A231" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -4714,10 +4618,10 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -4725,10 +4629,10 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -4736,10 +4640,10 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -4747,10 +4651,10 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -4761,7 +4665,7 @@
       <c r="A236" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -4772,7 +4676,7 @@
       <c r="A237" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -4780,10 +4684,10 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -4794,7 +4698,7 @@
       <c r="A239" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -4802,10 +4706,10 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -4816,7 +4720,7 @@
       <c r="A241" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -4827,7 +4731,7 @@
       <c r="A242" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -4838,7 +4742,7 @@
       <c r="A243" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -4857,10 +4761,10 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>353</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -4868,10 +4772,10 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>351</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -4879,10 +4783,10 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -4890,10 +4794,10 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>342</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -4901,10 +4805,10 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>470</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -4912,10 +4816,10 @@
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -4923,10 +4827,10 @@
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -4934,10 +4838,10 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>433</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -4945,10 +4849,10 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>348</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -4956,10 +4860,10 @@
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="8" t="s">
         <v>461</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -4967,10 +4871,10 @@
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="8" t="s">
         <v>321</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -4978,221 +4882,192 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="8" t="s">
         <v>345</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="8" t="s">
+    <row r="257" spans="1:4">
+      <c r="A257" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="8" t="s">
+    <row r="258" spans="1:4">
+      <c r="A258" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="8" t="s">
         <v>396</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="8" t="s">
+    <row r="259" spans="1:4">
+      <c r="A259" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="8" t="s">
         <v>336</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="8" t="s">
+    <row r="260" spans="1:4">
+      <c r="A260" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="8" t="s">
+    <row r="261" spans="1:4">
+      <c r="A261" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="8" t="s">
+    <row r="262" spans="1:4">
+      <c r="A262" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B262" s="9" t="s">
-        <v>515</v>
+      <c r="B262" s="8" t="s">
+        <v>512</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F262" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="8" t="s">
+    <row r="263" spans="1:4">
+      <c r="A263" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="8" t="s">
+    <row r="264" spans="1:4">
+      <c r="A264" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="8" t="s">
         <v>377</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G264" s="7"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="8" t="s">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="B266" s="9" t="s">
+    <row r="266" spans="1:4">
+      <c r="A266" s="7" t="s">
         <v>517</v>
       </c>
+      <c r="B266" s="8" t="s">
+        <v>513</v>
+      </c>
       <c r="C266" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F266" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G266" s="2" t="s">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="D267" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F267" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G267" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="8"/>
-      <c r="B268" s="9"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="8"/>
-      <c r="B269" s="9"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="8"/>
-      <c r="B270" s="9"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="8"/>
-      <c r="B271" s="9"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="8"/>
-      <c r="B272" s="9"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="7"/>
+      <c r="B268" s="8"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="7"/>
+      <c r="B269" s="8"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="7"/>
+      <c r="B270" s="8"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="7"/>
+      <c r="B271" s="8"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="7"/>
+      <c r="B272" s="8"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="8"/>
-      <c r="B273" s="9"/>
+      <c r="A273" s="7"/>
+      <c r="B273" s="8"/>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="8"/>
-      <c r="B274" s="9"/>
+      <c r="A274" s="7"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="8"/>
-      <c r="B275" s="9"/>
+      <c r="A275" s="7"/>
+      <c r="B275" s="8"/>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="8"/>
-      <c r="B276" s="9"/>
+      <c r="A276" s="7"/>
+      <c r="B276" s="8"/>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="8"/>
-      <c r="B277" s="9"/>
+      <c r="A277" s="7"/>
+      <c r="B277" s="8"/>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="8"/>
-      <c r="B278" s="9"/>
+      <c r="A278" s="7"/>
+      <c r="B278" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G265" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
-      <sortCondition descending="1" ref="A1:A265"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D278" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E411CB3-7158-46C0-B79C-83855408C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0C819-708E-4137-BC9F-0CD650ED598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$D$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$D$285</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="543">
   <si>
     <t>arabic_word</t>
   </si>
@@ -43,9 +43,6 @@
     <t>يَشْكُرُ</t>
   </si>
   <si>
-    <t>Şükrediyor</t>
-  </si>
-  <si>
     <t>نَظَرَ</t>
   </si>
   <si>
@@ -1558,9 +1555,6 @@
     <t>Muzari</t>
   </si>
   <si>
-    <t>Sahih</t>
-  </si>
-  <si>
     <t>Şükret ! // Teşekkür et !</t>
   </si>
   <si>
@@ -1582,7 +1576,82 @@
     <t>يُشْكَرُ</t>
   </si>
   <si>
-    <t>ses_doyası</t>
+    <t>SAYFA</t>
+  </si>
+  <si>
+    <t>Şükrediyor / Teşekkür ediyor</t>
+  </si>
+  <si>
+    <t>Bilindi</t>
+  </si>
+  <si>
+    <t>Tanınıyor // Biliniyor</t>
+  </si>
+  <si>
+    <t>Öğütlendi</t>
+  </si>
+  <si>
+    <t>Öğütleniyor // Nasihat ediliyor</t>
+  </si>
+  <si>
+    <t>İşitildi</t>
+  </si>
+  <si>
+    <t>İşitiliyor // Dinleniyor</t>
+  </si>
+  <si>
+    <t>Uzak olundu</t>
+  </si>
+  <si>
+    <t>Uzak olunuyor</t>
+  </si>
+  <si>
+    <t>Sanıldı</t>
+  </si>
+  <si>
+    <t>Sanılıyor // Zannediliyor</t>
+  </si>
+  <si>
+    <t>Emredildi</t>
+  </si>
+  <si>
+    <t>Emrediliyor</t>
+  </si>
+  <si>
+    <t>Esir alındı</t>
+  </si>
+  <si>
+    <t>Esir alınıyor</t>
+  </si>
+  <si>
+    <t>Soruldu</t>
+  </si>
+  <si>
+    <t>Soruluyor // İsteniyor</t>
+  </si>
+  <si>
+    <t>Dolduruldu</t>
+  </si>
+  <si>
+    <t>Dolduruluyor</t>
+  </si>
+  <si>
+    <t>مُلِئَ</t>
+  </si>
+  <si>
+    <t>يُمْلَأُ</t>
+  </si>
+  <si>
+    <t>Alışıldı</t>
+  </si>
+  <si>
+    <t>Alışılıyor // Isınılıyor</t>
+  </si>
+  <si>
+    <t>أُلِفَ</t>
+  </si>
+  <si>
+    <t>يُؤْلَفُ</t>
   </si>
 </sst>
 </file>
@@ -2031,10 +2100,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
@@ -2042,8 +2111,7 @@
     <col min="1" max="1" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -2054,2850 +2122,3091 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>493</v>
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>518</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>245</v>
+        <v>510</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>508</v>
       </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>235</v>
+      <c r="A4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>469</v>
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>515</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>207</v>
+        <v>511</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>411</v>
+      <c r="A10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>512</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>432</v>
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>488</v>
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>460</v>
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>437</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>237</v>
+      <c r="A18" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>507</v>
       </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>370</v>
+      <c r="A20" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>167</v>
+      <c r="A21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>328</v>
+        <v>519</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>391</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>395</v>
+        <v>520</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D27" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>247</v>
+      <c r="A28" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>301</v>
+      <c r="A29" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D29" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
-        <v>266</v>
+      <c r="A30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D30" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
-        <v>138</v>
+      <c r="A31" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="D31" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>506</v>
+      </c>
+      <c r="D32" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
-        <v>311</v>
+        <v>506</v>
+      </c>
+      <c r="D33" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D34" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D36" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D37" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D39" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D40" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D42" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D44" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D45" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D46" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D47" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D48" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D49" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D50" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D52" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D53" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D54" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D55" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D56" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D57" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D58" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D59" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>442</v>
+      <c r="D60" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
-        <v>199</v>
-      </c>
+      <c r="D61" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>200</v>
+        <v>527</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>195</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D62" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>196</v>
+        <v>528</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6" t="s">
-        <v>209</v>
+        <v>514</v>
+      </c>
+      <c r="D63" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="6" t="s">
-        <v>193</v>
+        <v>509</v>
+      </c>
+      <c r="D64" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>441</v>
+        <v>508</v>
+      </c>
+      <c r="D65" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="6" t="s">
-        <v>197</v>
+        <v>506</v>
+      </c>
+      <c r="D66" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="D67" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>212</v>
+        <v>529</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>491</v>
+        <v>513</v>
+      </c>
+      <c r="D68" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>514</v>
+      </c>
+      <c r="D69" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>185</v>
+        <v>508</v>
+      </c>
+      <c r="D70" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="6" t="s">
-        <v>213</v>
+        <v>506</v>
+      </c>
+      <c r="D71" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>509</v>
+      </c>
+      <c r="D72" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="7" t="s">
-        <v>368</v>
+      <c r="D73" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D74" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D75" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D76" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D77" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="7"/>
+      <c r="B78" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D78" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>408</v>
+      <c r="D79" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D80" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>507</v>
+      <c r="D81" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>434</v>
+        <v>103</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D83" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>508</v>
+      <c r="D84" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>410</v>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8" t="s">
+        <v>533</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
+      </c>
+      <c r="D85" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
+      </c>
+      <c r="D86" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>431</v>
+        <v>173</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="6" t="s">
-        <v>316</v>
+      <c r="A90" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
-        <v>318</v>
+      <c r="A91" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
-        <v>83</v>
+      <c r="A92" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>49</v>
+        <v>406</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="6" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="6" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D97" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D99" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C99" s="2" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>489</v>
+    <row r="105" spans="1:4">
+      <c r="A105" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>435</v>
+      <c r="B109" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>506</v>
+      </c>
+      <c r="D110" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>462</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>459</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>379</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="6" t="s">
-        <v>71</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="6" t="s">
-        <v>308</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>438</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>401</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>114</v>
+        <v>485</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>12</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="7" t="s">
-        <v>169</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>358</v>
+        <v>172</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>166</v>
+        <v>362</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="6" t="s">
-        <v>274</v>
+    <row r="129" spans="1:4">
+      <c r="A129" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D130" s="2">
         <v>32</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>382</v>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="6" t="s">
-        <v>319</v>
+        <v>506</v>
+      </c>
+      <c r="D131" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="6" t="s">
+      <c r="D132" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="C149" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="6" t="s">
-        <v>162</v>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="7" t="s">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="6" t="s">
-        <v>314</v>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="7" t="s">
-        <v>347</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D162" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C160" s="2" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="6" t="s">
-        <v>30</v>
+    <row r="170" spans="1:4">
+      <c r="A170" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="6" t="s">
-        <v>42</v>
+    <row r="171" spans="1:4">
+      <c r="A171" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>100</v>
+    <row r="172" spans="1:4">
+      <c r="A172" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>282</v>
+        <v>428</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="7" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>277</v>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>494</v>
+        <v>28</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>495</v>
+        <v>272</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>47</v>
+        <v>445</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>105</v>
+        <v>443</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="7" t="s">
-        <v>265</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="7" t="s">
-        <v>300</v>
+        <v>506</v>
+      </c>
+      <c r="D184" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="7" t="s">
-        <v>260</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="7" t="s">
-        <v>136</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>147</v>
+        <v>453</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>473</v>
+        <v>112</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>506</v>
+      </c>
+      <c r="D189" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>415</v>
+        <v>153</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>17</v>
+      <c r="A193" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>155</v>
+        <v>456</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="7" t="s">
-        <v>355</v>
+      <c r="A196" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>354</v>
+        <v>115</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
+      </c>
+      <c r="D196" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>378</v>
+      <c r="A198" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>375</v>
+      <c r="A199" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>118</v>
+        <v>501</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>496</v>
+        <v>155</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>295</v>
+      <c r="A202" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="7" t="s">
-        <v>312</v>
+      <c r="A203" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>217</v>
+      <c r="A206" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>469</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>76</v>
+        <v>474</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="7" t="s">
-        <v>310</v>
+      <c r="A209" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="7" t="s">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>465</v>
+      <c r="A211" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="6" t="s">
-        <v>59</v>
+      <c r="A212" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>29</v>
+      <c r="A213" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>280</v>
+      <c r="A214" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B216" s="10" t="s">
-        <v>76</v>
+      <c r="A216" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="7" t="s">
-        <v>192</v>
+      <c r="A217" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>409</v>
+        <v>119</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="D217" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>58</v>
+        <v>385</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="6" t="s">
-        <v>73</v>
+      <c r="A220" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="7" t="s">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="6" t="s">
-        <v>305</v>
+      <c r="A222" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>114</v>
+      <c r="A223" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>10</v>
+      <c r="A224" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>472</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="7" t="s">
-        <v>334</v>
+      <c r="A225" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B227" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B227" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="6" t="s">
-        <v>121</v>
+      <c r="A229" s="7" t="s">
+        <v>425</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>122</v>
+        <v>432</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>290</v>
+        <v>426</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>135</v>
+        <v>423</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>340</v>
+      <c r="A232" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B233" s="10" t="s">
-        <v>80</v>
+      <c r="A233" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="7" t="s">
-        <v>125</v>
+      <c r="A234" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="7" t="s">
-        <v>84</v>
+        <v>451</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>96</v>
+        <v>449</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>94</v>
+        <v>452</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>343</v>
+      <c r="A238" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="C238" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B240" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="6" t="s">
-        <v>130</v>
+    <row r="241" spans="1:4">
+      <c r="A241" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="6" t="s">
-        <v>97</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>87</v>
+        <v>256</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="7" t="s">
-        <v>129</v>
+    <row r="246" spans="1:4">
+      <c r="A246" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>351</v>
+        <v>163</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="7" t="s">
-        <v>231</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="7" t="s">
-        <v>92</v>
+        <v>506</v>
+      </c>
+      <c r="D247" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>342</v>
+        <v>195</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="7" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>470</v>
+        <v>251</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" s="7" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>412</v>
+        <v>252</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="7" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="7" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>433</v>
+        <v>253</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="7" t="s">
-        <v>112</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>461</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="7" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="7" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>509</v>
@@ -4905,90 +5214,90 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="7" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="7" t="s">
-        <v>78</v>
+      <c r="A259" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="7" t="s">
+      <c r="A260" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="7" t="s">
-        <v>243</v>
+      <c r="A261" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="D261" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="7" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>141</v>
+      <c r="A263" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>377</v>
+      <c r="A264" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>332</v>
+      <c r="A265" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>509</v>
@@ -4996,78 +5305,472 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="7" t="s">
-        <v>517</v>
+        <v>83</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>513</v>
+        <v>84</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="7" t="s">
-        <v>518</v>
+        <v>242</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>514</v>
+        <v>243</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="7"/>
-      <c r="B268" s="8"/>
+      <c r="A268" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="7"/>
-      <c r="B269" s="8"/>
+      <c r="A269" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="7"/>
-      <c r="B270" s="8"/>
+      <c r="A270" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="7"/>
-      <c r="B271" s="8"/>
+      <c r="A271" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="7"/>
-      <c r="B272" s="8"/>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="7"/>
-      <c r="B273" s="8"/>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="7"/>
-      <c r="B274" s="8"/>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="7"/>
-      <c r="B275" s="8"/>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="7"/>
-      <c r="B276" s="8"/>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="7"/>
-      <c r="B277" s="8"/>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="7"/>
-      <c r="B278" s="8"/>
+      <c r="A272" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D284" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D285" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D286" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D287" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="7"/>
+      <c r="B288" s="8"/>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="7"/>
+      <c r="B289" s="8"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="7"/>
+      <c r="B290" s="8"/>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="7"/>
+      <c r="B291" s="8"/>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="7"/>
+      <c r="B292" s="8"/>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="7"/>
+      <c r="B293" s="8"/>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="7"/>
+      <c r="B294" s="8"/>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="7"/>
+      <c r="B295" s="8"/>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="7"/>
+      <c r="B296" s="8"/>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="7"/>
+      <c r="B297" s="8"/>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="7"/>
+      <c r="B298" s="8"/>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="7"/>
+      <c r="B299" s="8"/>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="7"/>
+      <c r="B300" s="8"/>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="7"/>
+      <c r="B301" s="8"/>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="7"/>
+      <c r="B302" s="8"/>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="7"/>
+      <c r="B303" s="8"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="7"/>
+      <c r="B304" s="8"/>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="7"/>
+      <c r="B305" s="8"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="7"/>
+      <c r="B306" s="8"/>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="7"/>
+      <c r="B307" s="8"/>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="7"/>
+      <c r="B308" s="8"/>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="7"/>
+      <c r="B309" s="8"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="7"/>
+      <c r="B310" s="8"/>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="7"/>
+      <c r="B311" s="8"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="7"/>
+      <c r="B312" s="8"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="7"/>
+      <c r="B313" s="8"/>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="7"/>
+      <c r="B314" s="8"/>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="7"/>
+      <c r="B315" s="8"/>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="7"/>
+      <c r="B316" s="8"/>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="7"/>
+      <c r="B317" s="8"/>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="7"/>
+      <c r="B318" s="8"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="7"/>
+      <c r="B319" s="8"/>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="7"/>
+      <c r="B320" s="8"/>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="7"/>
+      <c r="B321" s="8"/>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="7"/>
+      <c r="B322" s="8"/>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="7"/>
+      <c r="B323" s="8"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="7"/>
+      <c r="B324" s="8"/>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="7"/>
+      <c r="B325" s="8"/>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="7"/>
+      <c r="B326" s="8"/>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="7"/>
+      <c r="B327" s="8"/>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="7"/>
+      <c r="B328" s="8"/>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="7"/>
+      <c r="B329" s="8"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="7"/>
+      <c r="B330" s="8"/>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="7"/>
+      <c r="B331" s="8"/>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="7"/>
+      <c r="B332" s="8"/>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="7"/>
+      <c r="B333" s="8"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="7"/>
+      <c r="B334" s="8"/>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="7"/>
+      <c r="B335" s="8"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="7"/>
+      <c r="B336" s="8"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="7"/>
+      <c r="B337" s="8"/>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="7"/>
+      <c r="B338" s="8"/>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="7"/>
+      <c r="B339" s="8"/>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="7"/>
+      <c r="B340" s="8"/>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="7"/>
+      <c r="B341" s="8"/>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="7"/>
+      <c r="B342" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D278" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D285" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D283">
+      <sortCondition ref="D1:D283"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sulasimucerred.xlsx
+++ b/sulasimucerred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0C819-708E-4137-BC9F-0CD650ED598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE0EC72-A07D-40F1-B731-D72EE9840FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SÜLASİ_MÜCERRED_FİİLLER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$D$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SÜLASİ_MÜCERRED_FİİLLER!$A$1:$D$283</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="535">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1628,30 +1628,6 @@
   </si>
   <si>
     <t>Soruluyor // İsteniyor</t>
-  </si>
-  <si>
-    <t>Dolduruldu</t>
-  </si>
-  <si>
-    <t>Dolduruluyor</t>
-  </si>
-  <si>
-    <t>مُلِئَ</t>
-  </si>
-  <si>
-    <t>يُمْلَأُ</t>
-  </si>
-  <si>
-    <t>Alışıldı</t>
-  </si>
-  <si>
-    <t>Alışılıyor // Isınılıyor</t>
-  </si>
-  <si>
-    <t>أُلِفَ</t>
-  </si>
-  <si>
-    <t>يُؤْلَفُ</t>
   </si>
 </sst>
 </file>
@@ -2102,8 +2078,8 @@
   </sheetPr>
   <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="B291" sqref="B291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
@@ -3395,11 +3371,8 @@
       <c r="C96" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D96" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>126</v>
       </c>
@@ -3409,11 +3382,8 @@
       <c r="C97" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D97" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>351</v>
       </c>
@@ -3423,11 +3393,8 @@
       <c r="C98" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D98" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>124</v>
       </c>
@@ -3437,11 +3404,8 @@
       <c r="C99" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D99" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>448</v>
       </c>
@@ -3452,7 +3416,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>192</v>
       </c>
@@ -3463,7 +3427,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>301</v>
       </c>
@@ -3474,7 +3438,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>299</v>
       </c>
@@ -3485,7 +3449,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>300</v>
       </c>
@@ -3496,7 +3460,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>302</v>
       </c>
@@ -3507,7 +3471,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>270</v>
       </c>
@@ -3518,7 +3482,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>303</v>
       </c>
@@ -3529,7 +3493,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>306</v>
       </c>
@@ -3540,7 +3504,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>145</v>
       </c>
@@ -3551,7 +3515,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>120</v>
       </c>
@@ -3561,11 +3525,8 @@
       <c r="C110" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D110" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>212</v>
       </c>
@@ -3576,7 +3537,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>191</v>
       </c>
@@ -3763,7 +3724,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
         <v>177</v>
       </c>
@@ -3774,7 +3735,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
         <v>111</v>
       </c>
@@ -3784,11 +3745,8 @@
       <c r="C130" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D130" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
         <v>107</v>
       </c>
@@ -3798,11 +3756,8 @@
       <c r="C131" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D131" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="7" t="s">
         <v>349</v>
       </c>
@@ -3812,11 +3767,8 @@
       <c r="C132" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D132" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
         <v>109</v>
       </c>
@@ -3826,11 +3778,8 @@
       <c r="C133" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D133" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>202</v>
       </c>
@@ -3841,7 +3790,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>480</v>
       </c>
@@ -3852,7 +3801,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>453</v>
       </c>
@@ -3863,7 +3812,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>304</v>
       </c>
@@ -3874,7 +3823,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>401</v>
       </c>
@@ -3885,7 +3834,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>383</v>
       </c>
@@ -3896,7 +3845,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>429</v>
       </c>
@@ -3907,7 +3856,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>478</v>
       </c>
@@ -3918,7 +3867,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
         <v>421</v>
       </c>
@@ -3929,7 +3878,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
         <v>261</v>
       </c>
@@ -3940,7 +3889,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>422</v>
       </c>
@@ -4127,7 +4076,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
         <v>317</v>
       </c>
@@ -4138,7 +4087,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
         <v>133</v>
       </c>
@@ -4148,11 +4097,8 @@
       <c r="C162" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="6" t="s">
         <v>236</v>
       </c>
@@ -4163,7 +4109,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:3">
       <c r="A164" s="6" t="s">
         <v>268</v>
       </c>
@@ -4174,7 +4120,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:3">
       <c r="A165" s="6" t="s">
         <v>318</v>
       </c>
@@ -4185,7 +4131,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
         <v>308</v>
       </c>
@@ -4196,7 +4142,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:3">
       <c r="A167" s="6" t="s">
         <v>246</v>
       </c>
@@ -4207,7 +4153,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:3">
       <c r="A168" s="7" t="s">
         <v>311</v>
       </c>
@@ -4218,7 +4164,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:3">
       <c r="A169" s="7" t="s">
         <v>219</v>
       </c>
@@ -4229,7 +4175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:3">
       <c r="A170" s="7" t="s">
         <v>367</v>
       </c>
@@ -4240,7 +4186,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:3">
       <c r="A171" s="7" t="s">
         <v>312</v>
       </c>
@@ -4251,7 +4197,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:3">
       <c r="A172" s="7" t="s">
         <v>215</v>
       </c>
@@ -4262,7 +4208,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
         <v>316</v>
       </c>
@@ -4273,7 +4219,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:3">
       <c r="A174" s="6" t="s">
         <v>428</v>
       </c>
@@ -4284,7 +4230,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:3">
       <c r="A175" s="7" t="s">
         <v>309</v>
       </c>
@@ -4295,7 +4241,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:3">
       <c r="A176" s="7" t="s">
         <v>217</v>
       </c>
@@ -4306,7 +4252,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:3">
       <c r="A177" s="7" t="s">
         <v>310</v>
       </c>
@@ -4317,7 +4263,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>444</v>
       </c>
@@ -4328,7 +4274,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>442</v>
       </c>
@@ -4339,7 +4285,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>272</v>
       </c>
@@ -4350,7 +4296,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>405</v>
       </c>
@@ -4361,7 +4307,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>445</v>
       </c>
@@ -4372,7 +4318,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>443</v>
       </c>
@@ -4383,7 +4329,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>116</v>
       </c>
@@ -4393,11 +4339,8 @@
       <c r="C184" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D184" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>208</v>
       </c>
@@ -4408,7 +4351,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>224</v>
       </c>
@@ -4419,7 +4362,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>232</v>
       </c>
@@ -4430,7 +4373,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>453</v>
       </c>
@@ -4441,7 +4384,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>112</v>
       </c>
@@ -4451,11 +4394,8 @@
       <c r="C189" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D189" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>387</v>
       </c>
@@ -4466,7 +4406,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>307</v>
       </c>
@@ -4477,7 +4417,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>153</v>
       </c>
@@ -4488,7 +4428,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>388</v>
       </c>
@@ -4499,7 +4439,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>456</v>
       </c>
@@ -4510,7 +4450,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
         <v>486</v>
       </c>
@@ -4521,7 +4461,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>114</v>
       </c>
@@ -4531,11 +4471,8 @@
       <c r="C196" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D196" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>314</v>
       </c>
@@ -4546,7 +4483,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>500</v>
       </c>
@@ -4557,7 +4494,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>499</v>
       </c>
@@ -4568,7 +4505,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>501</v>
       </c>
@@ -4579,7 +4516,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>155</v>
       </c>
@@ -4590,7 +4527,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>498</v>
       </c>
@@ -4601,7 +4538,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>305</v>
       </c>
@@ -4612,7 +4549,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>386</v>
       </c>
@@ -4623,7 +4560,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>159</v>
       </c>
@@ -4634,7 +4571,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:3">
       <c r="A206" s="7" t="s">
         <v>476</v>
       </c>
@@ -4645,7 +4582,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>183</v>
       </c>
@@ -4656,7 +4593,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>474</v>
       </c>
@@ -4667,7 +4604,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>262</v>
       </c>
@@ -4678,7 +4615,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:3">
       <c r="A210" s="7" t="s">
         <v>151</v>
       </c>
@@ -4689,7 +4626,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:3">
       <c r="A211" s="7" t="s">
         <v>147</v>
       </c>
@@ -4700,7 +4637,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:3">
       <c r="A212" s="7" t="s">
         <v>149</v>
       </c>
@@ -4711,7 +4648,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:3">
       <c r="A213" s="7" t="s">
         <v>355</v>
       </c>
@@ -4722,7 +4659,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>475</v>
       </c>
@@ -4733,7 +4670,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>271</v>
       </c>
@@ -4744,7 +4681,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>477</v>
       </c>
@@ -4755,7 +4692,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>118</v>
       </c>
@@ -4765,11 +4702,8 @@
       <c r="C217" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D217" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>385</v>
       </c>
@@ -4780,7 +4714,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>384</v>
       </c>
@@ -4791,7 +4725,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:3">
       <c r="A220" s="7" t="s">
         <v>391</v>
       </c>
@@ -4802,7 +4736,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:3">
       <c r="A221" s="7" t="s">
         <v>389</v>
       </c>
@@ -4813,7 +4747,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:3">
       <c r="A222" s="7" t="s">
         <v>392</v>
       </c>
@@ -4824,7 +4758,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:3">
       <c r="A223" s="7" t="s">
         <v>390</v>
       </c>
@@ -4835,7 +4769,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>479</v>
       </c>
@@ -5022,7 +4956,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:3">
       <c r="A241" s="7" t="s">
         <v>228</v>
       </c>
@@ -5033,7 +4967,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:3">
       <c r="A242" s="7" t="s">
         <v>369</v>
       </c>
@@ -5044,7 +4978,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:3">
       <c r="A243" s="6" t="s">
         <v>263</v>
       </c>
@@ -5055,7 +4989,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:3">
       <c r="A244" s="6" t="s">
         <v>315</v>
       </c>
@@ -5066,7 +5000,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:3">
       <c r="A245" s="7" t="s">
         <v>333</v>
       </c>
@@ -5077,7 +5011,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:3">
       <c r="A246" s="6" t="s">
         <v>162</v>
       </c>
@@ -5088,7 +5022,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:3">
       <c r="A247" s="6" t="s">
         <v>131</v>
       </c>
@@ -5098,11 +5032,8 @@
       <c r="C247" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D247" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="6" t="s">
         <v>194</v>
       </c>
@@ -5113,7 +5044,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:3">
       <c r="A249" s="7" t="s">
         <v>258</v>
       </c>
@@ -5124,7 +5055,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:3">
       <c r="A250" s="7" t="s">
         <v>259</v>
       </c>
@@ -5135,7 +5066,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:3">
       <c r="A251" s="7" t="s">
         <v>257</v>
       </c>
@@ -5146,7 +5077,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:3">
       <c r="A252" s="7" t="s">
         <v>260</v>
       </c>
@@ -5157,7 +5088,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:3">
       <c r="A253" s="6" t="s">
         <v>198</v>
       </c>
@@ -5168,7 +5099,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:3">
       <c r="A254" s="6" t="s">
         <v>446</v>
       </c>
@@ -5179,7 +5110,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:3">
       <c r="A255" s="7" t="s">
         <v>207</v>
       </c>
@@ -5190,7 +5121,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:3">
       <c r="A256" s="7" t="s">
         <v>204</v>
       </c>
@@ -5201,7 +5132,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:3">
       <c r="A257" s="7" t="s">
         <v>205</v>
       </c>
@@ -5212,7 +5143,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:3">
       <c r="A258" s="7" t="s">
         <v>366</v>
       </c>
@@ -5223,7 +5154,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:3">
       <c r="A259" s="6" t="s">
         <v>213</v>
       </c>
@@ -5234,7 +5165,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:3">
       <c r="A260" s="6" t="s">
         <v>220</v>
       </c>
@@ -5245,7 +5176,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:3">
       <c r="A261" s="6" t="s">
         <v>122</v>
       </c>
@@ -5255,11 +5186,8 @@
       <c r="C261" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D261" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="7" t="s">
         <v>418</v>
       </c>
@@ -5270,7 +5198,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:3">
       <c r="A263" s="6" t="s">
         <v>416</v>
       </c>
@@ -5281,7 +5209,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:3">
       <c r="A264" s="6" t="s">
         <v>419</v>
       </c>
@@ -5292,7 +5220,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:3">
       <c r="A265" s="6" t="s">
         <v>417</v>
       </c>
@@ -5303,7 +5231,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:3">
       <c r="A266" s="7" t="s">
         <v>83</v>
       </c>
@@ -5314,7 +5242,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:3">
       <c r="A267" s="7" t="s">
         <v>242</v>
       </c>
@@ -5325,7 +5253,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:3">
       <c r="A268" s="7" t="s">
         <v>238</v>
       </c>
@@ -5336,7 +5264,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:3">
       <c r="A269" s="7" t="s">
         <v>240</v>
       </c>
@@ -5347,7 +5275,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:3">
       <c r="A270" s="7" t="s">
         <v>247</v>
       </c>
@@ -5358,7 +5286,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:3">
       <c r="A271" s="6" t="s">
         <v>169</v>
       </c>
@@ -5369,7 +5297,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:3">
       <c r="A272" s="6" t="s">
         <v>483</v>
       </c>
@@ -5380,7 +5308,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:3">
       <c r="A273" s="6" t="s">
         <v>484</v>
       </c>
@@ -5391,7 +5319,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:3">
       <c r="A274" s="6" t="s">
         <v>481</v>
       </c>
@@ -5402,7 +5330,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:3">
       <c r="A275" s="6" t="s">
         <v>269</v>
       </c>
@@ -5413,7 +5341,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:3">
       <c r="A276" s="6" t="s">
         <v>502</v>
       </c>
@@ -5424,7 +5352,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:3">
       <c r="A277" s="6" t="s">
         <v>141</v>
       </c>
@@ -5435,7 +5363,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:3">
       <c r="A278" s="6" t="s">
         <v>222</v>
       </c>
@@ -5446,7 +5374,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:3">
       <c r="A279" s="6" t="s">
         <v>504</v>
       </c>
@@ -5457,7 +5385,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:3">
       <c r="A280" s="7" t="s">
         <v>265</v>
       </c>
@@ -5468,7 +5396,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:3">
       <c r="A281" s="7" t="s">
         <v>266</v>
       </c>
@@ -5479,7 +5407,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:3">
       <c r="A282" s="7" t="s">
         <v>267</v>
       </c>
@@ -5490,7 +5418,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:3">
       <c r="A283" s="7" t="s">
         <v>264</v>
       </c>
@@ -5501,51 +5429,23 @@
         <v>506</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="D284" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D285" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="D286" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D287" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+    <row r="284" spans="1:3">
+      <c r="A284" s="7"/>
+      <c r="B284" s="8"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="7"/>
+      <c r="B285" s="8"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="7"/>
+      <c r="B286" s="8"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="7"/>
+      <c r="B287" s="8"/>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
     </row>
@@ -5766,7 +5666,7 @@
       <c r="B342" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D285" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:D283" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D283">
       <sortCondition ref="D1:D283"/>
     </sortState>
